--- a/Team-Data/2013-14/4-4-2013-14.xlsx
+++ b/Team-Data/2013-14/4-4-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.44</v>
+        <v>0.432</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J2" t="n">
         <v>81.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M2" t="n">
         <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q2" t="n">
         <v>0.78</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S2" t="n">
         <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
@@ -738,25 +805,25 @@
         <v>19.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD2" t="n">
         <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -768,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -777,10 +844,10 @@
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -798,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>26</v>
@@ -810,16 +877,16 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
         <v>83.8</v>
@@ -875,10 +942,10 @@
         <v>6.7</v>
       </c>
       <c r="M3" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
@@ -890,7 +957,7 @@
         <v>0.775</v>
       </c>
       <c r="R3" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
         <v>30.7</v>
@@ -899,13 +966,13 @@
         <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
         <v>4.3</v>
@@ -914,34 +981,34 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -959,25 +1026,25 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
         <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.547</v>
+        <v>0.541</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
         <v>8.6</v>
       </c>
       <c r="M4" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.759</v>
       </c>
       <c r="R4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>8.6</v>
@@ -1099,13 +1166,13 @@
         <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
         <v>25</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1153,34 +1220,34 @@
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1251,7 +1318,7 @@
         <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
@@ -1269,28 +1336,28 @@
         <v>12.3</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1308,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
         <v>24</v>
@@ -1317,13 +1384,13 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
@@ -1338,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,16 +1420,16 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.579</v>
+        <v>0.573</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
         <v>80.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L6" t="n">
         <v>6.1</v>
@@ -1427,19 +1494,19 @@
         <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S6" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T6" t="n">
         <v>44.4</v>
@@ -1448,7 +1515,7 @@
         <v>22.5</v>
       </c>
       <c r="V6" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1493,22 +1560,22 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN6" t="n">
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1526,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1538,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>0.403</v>
+        <v>0.408</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1594,46 +1661,46 @@
         <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>84.5</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
         <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
@@ -1651,10 +1718,10 @@
         <v>97.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1675,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1687,16 +1754,16 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.592</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1776,10 +1843,10 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>8.800000000000001</v>
@@ -1788,28 +1855,28 @@
         <v>22.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
       <c r="O8" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>13.6</v>
@@ -1824,7 +1891,7 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
         <v>20.1</v>
@@ -1833,10 +1900,10 @@
         <v>105.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1878,10 +1945,10 @@
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>26</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.434</v>
+        <v>0.44</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J9" t="n">
         <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L9" t="n">
         <v>8.5</v>
@@ -1970,16 +2037,16 @@
         <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
@@ -1991,10 +2058,10 @@
         <v>45.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2006,28 +2073,28 @@
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>29</v>
@@ -2078,13 +2145,13 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2149,7 +2216,7 @@
         <v>6.1</v>
       </c>
       <c r="M10" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N10" t="n">
         <v>0.319</v>
@@ -2158,16 +2225,16 @@
         <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.668</v>
+        <v>0.669</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
         <v>45.2</v>
@@ -2197,10 +2264,10 @@
         <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2224,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2248,10 +2315,10 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>12</v>
@@ -2266,13 +2333,13 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB10" t="n">
         <v>17</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
         <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.618</v>
+        <v>0.613</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.459</v>
@@ -2331,31 +2398,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2373,16 +2440,16 @@
         <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB11" t="n">
         <v>103.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2406,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2427,10 +2494,10 @@
         <v>16</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2439,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2451,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2513,25 +2580,25 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
         <v>31</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.707</v>
+        <v>0.704</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T12" t="n">
         <v>45.1</v>
@@ -2540,7 +2607,7 @@
         <v>21.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2549,7 +2616,7 @@
         <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
         <v>20.4</v>
@@ -2615,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -2668,40 +2735,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>53</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
         <v>23.4</v>
@@ -2713,16 +2780,16 @@
         <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="T13" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
         <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2743,22 +2810,22 @@
         <v>96.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG13" t="n">
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2776,10 +2843,10 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2797,28 +2864,28 @@
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -2934,31 +3001,31 @@
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -2985,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -2997,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -3032,22 +3099,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
         <v>85</v>
@@ -3062,13 +3129,13 @@
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O15" t="n">
         <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q15" t="n">
         <v>0.755</v>
@@ -3080,7 +3147,7 @@
         <v>32</v>
       </c>
       <c r="T15" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U15" t="n">
         <v>24.1</v>
@@ -3089,7 +3156,7 @@
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
         <v>5.6</v>
@@ -3098,19 +3165,19 @@
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3143,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3170,13 +3237,13 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>0.592</v>
+        <v>0.587</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J16" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P16" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.745</v>
+        <v>0.742</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S16" t="n">
         <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3280,19 +3347,19 @@
         <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3304,13 +3371,13 @@
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,19 +3389,19 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
@@ -3355,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
         <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.503</v>
+        <v>0.504</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V17" t="n">
         <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
@@ -3462,16 +3529,16 @@
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
         <v>25</v>
@@ -3483,13 +3550,13 @@
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3510,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="n">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
         <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.751</v>
@@ -3626,19 +3693,19 @@
         <v>29.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>21.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
@@ -3650,13 +3717,13 @@
         <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,16 +3735,16 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>20</v>
@@ -3686,28 +3753,28 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
       </c>
       <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT18" t="n">
         <v>24</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>18</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" t="n">
         <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
         <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>87.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.444</v>
@@ -3787,31 +3854,31 @@
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
         <v>21.5</v>
       </c>
       <c r="P19" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T19" t="n">
         <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
@@ -3826,13 +3893,13 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA19" t="n">
         <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.9</v>
+        <v>106.6</v>
       </c>
       <c r="AC19" t="n">
         <v>3.2</v>
@@ -3850,16 +3917,16 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
@@ -3907,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.421</v>
+        <v>0.427</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,7 +4027,7 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
@@ -3981,7 +4048,7 @@
         <v>23.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
@@ -3990,7 +4057,7 @@
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
@@ -4008,7 +4075,7 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA20" t="n">
         <v>20.4</v>
@@ -4020,10 +4087,10 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -4032,13 +4099,13 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,10 +4117,10 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>12</v>
@@ -4062,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4086,7 +4153,7 @@
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA20" t="n">
         <v>18</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="n">
         <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4151,19 +4218,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P21" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
         <v>10.7</v>
@@ -4172,7 +4239,7 @@
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
@@ -4190,19 +4257,19 @@
         <v>3.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC21" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4211,34 +4278,34 @@
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4274,10 +4341,10 @@
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="n">
         <v>55</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.733</v>
+        <v>0.743</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,28 +4391,28 @@
         <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R22" t="n">
         <v>10.8</v>
@@ -4363,7 +4430,7 @@
         <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4372,16 +4439,16 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD22" t="n">
         <v>25</v>
@@ -4402,13 +4469,13 @@
         <v>3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4420,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,7 +4496,7 @@
         <v>19</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" t="n">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4509,16 +4576,16 @@
         <v>83.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O23" t="n">
         <v>16.1</v>
@@ -4527,7 +4594,7 @@
         <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
         <v>9.699999999999999</v>
@@ -4539,7 +4606,7 @@
         <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
@@ -4548,25 +4615,25 @@
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4590,19 +4657,19 @@
         <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>12</v>
@@ -4620,25 +4687,25 @@
         <v>22</v>
       </c>
       <c r="AV23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW23" t="n">
         <v>15</v>
       </c>
-      <c r="AW23" t="n">
-        <v>14</v>
-      </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
         <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>0.224</v>
+        <v>0.213</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4688,13 +4755,13 @@
         <v>37.7</v>
       </c>
       <c r="J24" t="n">
-        <v>87.5</v>
+        <v>87.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M24" t="n">
         <v>22.7</v>
@@ -4703,22 +4770,22 @@
         <v>0.31</v>
       </c>
       <c r="O24" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
@@ -4739,16 +4806,16 @@
         <v>22.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.9</v>
+        <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,16 +4827,16 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4796,7 +4863,7 @@
         <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.592</v>
+        <v>0.587</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,43 +4937,43 @@
         <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O25" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
         <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W25" t="n">
         <v>8.300000000000001</v>
@@ -4915,22 +4982,22 @@
         <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4945,40 +5012,40 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
         <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
@@ -4987,13 +5054,13 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
         <v>49</v>
       </c>
       <c r="F26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.645</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
-        <v>87</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
         <v>25.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P26" t="n">
         <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
         <v>12.5</v>
@@ -5085,10 +5152,10 @@
         <v>46.3</v>
       </c>
       <c r="U26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
@@ -5100,22 +5167,22 @@
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
         <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5127,16 +5194,16 @@
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5184,10 +5251,10 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
         <v>82.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O27" t="n">
         <v>20.8</v>
       </c>
       <c r="P27" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R27" t="n">
         <v>12.2</v>
@@ -5264,10 +5331,10 @@
         <v>32.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V27" t="n">
         <v>15.4</v>
@@ -5282,19 +5349,19 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA27" t="n">
         <v>23.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.7</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5312,13 +5379,13 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>26</v>
@@ -5339,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5366,10 +5433,10 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.579</v>
+        <v>0.573</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
@@ -5610,13 +5677,13 @@
         <v>23</v>
       </c>
       <c r="N29" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O29" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
         <v>0.782</v>
@@ -5631,7 +5698,7 @@
         <v>42.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>14.2</v>
@@ -5646,7 +5713,7 @@
         <v>4.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
@@ -5655,10 +5722,10 @@
         <v>100.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5679,10 +5746,10 @@
         <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
@@ -5718,19 +5785,19 @@
         <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -5762,85 +5829,85 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.316</v>
+        <v>0.307</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N30" t="n">
         <v>0.35</v>
       </c>
       <c r="O30" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
         <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5870,13 +5937,13 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ30" t="n">
         <v>22</v>
@@ -5891,19 +5958,19 @@
         <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
         <v>14</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX30" t="n">
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="n">
         <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.526</v>
+        <v>0.52</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
@@ -5962,7 +6029,7 @@
         <v>38.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K31" t="n">
         <v>0.457</v>
@@ -5974,16 +6041,16 @@
         <v>20.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
@@ -5995,34 +6062,34 @@
         <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.8</v>
       </c>
       <c r="W31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC31" t="n">
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,16 +6104,16 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6070,7 +6137,7 @@
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6082,10 +6149,10 @@
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2013-14</t>
+          <t>2014-04-04</t>
         </is>
       </c>
     </row>
